--- a/biology/Zoologie/Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin/Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin.xlsx
+++ b/biology/Zoologie/Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin/Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
+          <t>Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chaque année à Yulin, en Chine, se déroule la fête du litchi et de la viande de chien de Yulin (chinois : 玉林荔枝狗肉节 ; pinyin : yùlín lìzhī gǒuròu jié). La fête a lieu durant le solstice d'été, du 21 au 22 juin dans la ville-préfecture de Yulin, dans la région autonome zhuang du Guangxi, en République populaire de Chine. Comme son nom l'indique, on y consomme de la viande de chien et des litchi[1]. Le festival suscite des critiques dans les années 2000 notamment de la part de défenseurs de la cause animale.
+Chaque année à Yulin, en Chine, se déroule la fête du litchi et de la viande de chien de Yulin (chinois : 玉林荔枝狗肉节 ; pinyin : yùlín lìzhī gǒuròu jié). La fête a lieu durant le solstice d'été, du 21 au 22 juin dans la ville-préfecture de Yulin, dans la région autonome zhuang du Guangxi, en République populaire de Chine. Comme son nom l'indique, on y consomme de la viande de chien et des litchi. Le festival suscite des critiques dans les années 2000 notamment de la part de défenseurs de la cause animale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
+          <t>Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fête est liée à une expression populaire, « Quand l'hiver arrive poisson cru, quand l'été arrive, chien » (冬至鱼生夏至狗), faisant référence aux plats mangés à ces différents solstices.
-Un rapport d'enquête publié en 2009 par le Centre de recherche sur la protection des animaux de l'Université du Shandong a déclaré que l'origine du festival de la viande de chien de Yulin remonte au Festival de la nourriture de Yulin. À cette époque, la viande de chien croustillante a remporté un prix d'or, et certaines personnes ont commencé à promouvoir le Festival de la viande de chien[2],[3].
+Un rapport d'enquête publié en 2009 par le Centre de recherche sur la protection des animaux de l'Université du Shandong a déclaré que l'origine du festival de la viande de chien de Yulin remonte au Festival de la nourriture de Yulin. À cette époque, la viande de chien croustillante a remporté un prix d'or, et certaines personnes ont commencé à promouvoir le Festival de la viande de chien,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAte_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
+          <t>Fête_du_litchi_et_de_la_viande_de_chien_de_Yulin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors des préparations du festival, plusieurs milliers de chiens et de chats sont abattus pour l'occasion[4]. Le festival fait l'objet dans les années 2010 de plusieurs polémiques et actions des défenseurs de la cause animale, qui militent pour son annulation[5], notamment après l'arrêt d'une fête similaire à Jinhua[6].
-Plus de dix mille chiens et quatre mille chats seraient tués lors de chaque édition. Parmi les méthodes d'abattage utilisées, on trouve notamment l'ébouillantage vivant. D'autres chiens et chats sont directement éventrés, empoisonnés[7],[8], ou éviscérés vivants. Les ébouillanter vivant permet de garder leurs corps intacts, ce qui en fait l'une des méthodes d'abattage les plus utilisées dans ce festival. D'après le quotidien du peuple, les propriétaires des chiens sont parfois menacés par des armes par certains trafiquants, et les élevages ne respectent pas toujours les normes[8]. Les animaux sont aussi parfois tués à coups de bâton[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des préparations du festival, plusieurs milliers de chiens et de chats sont abattus pour l'occasion. Le festival fait l'objet dans les années 2010 de plusieurs polémiques et actions des défenseurs de la cause animale, qui militent pour son annulation, notamment après l'arrêt d'une fête similaire à Jinhua.
+Plus de dix mille chiens et quatre mille chats seraient tués lors de chaque édition. Parmi les méthodes d'abattage utilisées, on trouve notamment l'ébouillantage vivant. D'autres chiens et chats sont directement éventrés, empoisonnés ou éviscérés vivants. Les ébouillanter vivant permet de garder leurs corps intacts, ce qui en fait l'une des méthodes d'abattage les plus utilisées dans ce festival. D'après le quotidien du peuple, les propriétaires des chiens sont parfois menacés par des armes par certains trafiquants, et les élevages ne respectent pas toujours les normes. Les animaux sont aussi parfois tués à coups de bâton.
 			Chats destinés à la consommation humaine sur un marché en Asie du Sud-Est (quel pays ?) (2009).
 </t>
         </is>
